--- a/project 8/bin/Debug/History.xlsx
+++ b/project 8/bin/Debug/History.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,13 +19,588 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="190">
+  <si>
+    <t>don’t know what he wants in his life</t>
+  </si>
+  <si>
+    <t>011371483</t>
+  </si>
+  <si>
+    <t>Lachlann</t>
+  </si>
+  <si>
+    <t>Ashwoon</t>
+  </si>
+  <si>
+    <t>0565715121</t>
+  </si>
+  <si>
+    <t>Lachlann_Ashwoon@Fmail.com</t>
+  </si>
+  <si>
+    <t>In process (30%)</t>
+  </si>
+  <si>
+    <t>204264543</t>
+  </si>
+  <si>
+    <t>11/23/2018</t>
+  </si>
+  <si>
+    <t>LBVD643I1C</t>
+  </si>
+  <si>
+    <t>0529418826</t>
+  </si>
+  <si>
+    <t>11/21/2018</t>
+  </si>
+  <si>
+    <t>6/21/2019</t>
+  </si>
+  <si>
+    <t>402054292</t>
+  </si>
+  <si>
+    <t>987654324</t>
+  </si>
+  <si>
+    <t>11/10/2018</t>
+  </si>
+  <si>
+    <t>W6JXV6SM57</t>
+  </si>
+  <si>
+    <t>0599673634</t>
+  </si>
+  <si>
+    <t>11/3/2018</t>
+  </si>
+  <si>
+    <t>7/3/2019</t>
+  </si>
+  <si>
+    <t>408050840</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>0546443105</t>
+  </si>
+  <si>
+    <t>Lincoln_Reyes@Jmail.com</t>
+  </si>
+  <si>
+    <t>Closed lost(0%)</t>
+  </si>
+  <si>
+    <t>208063511</t>
+  </si>
+  <si>
+    <t>12/2/2018</t>
+  </si>
+  <si>
+    <t>he is the president idk</t>
+  </si>
+  <si>
+    <t>66Q6S27FDC</t>
+  </si>
+  <si>
+    <t>0500770944</t>
+  </si>
+  <si>
+    <t>11/4/2018</t>
+  </si>
+  <si>
+    <t>6/4/2019</t>
+  </si>
+  <si>
+    <t>0560837165</t>
+  </si>
+  <si>
+    <t>11/5/2018</t>
+  </si>
+  <si>
+    <t>7/5/2019</t>
+  </si>
+  <si>
+    <t>239880646</t>
+  </si>
+  <si>
+    <t>Zachariya</t>
+  </si>
+  <si>
+    <t>Weinstein</t>
+  </si>
+  <si>
+    <t>0526979018</t>
+  </si>
+  <si>
+    <t>Zachariya_Weinstein@Bmail.com</t>
+  </si>
+  <si>
+    <t>stupid name</t>
+  </si>
+  <si>
+    <t>2I743I245I</t>
+  </si>
+  <si>
+    <t>0592978867</t>
+  </si>
+  <si>
+    <t>10/22/2018</t>
+  </si>
+  <si>
+    <t>5/22/2019</t>
+  </si>
+  <si>
+    <t>182744862</t>
+  </si>
+  <si>
+    <t>Ayren</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>0520964406</t>
+  </si>
+  <si>
+    <t>Ayren_Cast@Amail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>11/8/2018</t>
+  </si>
+  <si>
+    <t>IE6195V957</t>
+  </si>
+  <si>
+    <t>235607922</t>
+  </si>
+  <si>
+    <t>Patrick-John</t>
+  </si>
+  <si>
+    <t>Illingsworth</t>
+  </si>
+  <si>
+    <t>0502737518</t>
+  </si>
+  <si>
+    <t>Patrick-John_Illingsworth@Email.com</t>
+  </si>
+  <si>
+    <t>313301129</t>
+  </si>
+  <si>
+    <t>11/25/2018</t>
+  </si>
+  <si>
+    <t>7RF9001R91</t>
+  </si>
+  <si>
+    <t>0599392820</t>
+  </si>
+  <si>
+    <t>11/20/2018</t>
+  </si>
+  <si>
+    <t>6/20/2019</t>
+  </si>
+  <si>
+    <t>0579734030</t>
+  </si>
+  <si>
+    <t>11/19/2018</t>
+  </si>
+  <si>
+    <t>5/19/2019</t>
+  </si>
+  <si>
+    <t>257568547</t>
+  </si>
+  <si>
+    <t>Rooke</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>0559825333</t>
+  </si>
+  <si>
+    <t>Rooke_Yang@Mmail.com</t>
+  </si>
+  <si>
+    <t>Closed won(100%)</t>
+  </si>
+  <si>
+    <t>10/29/2018</t>
+  </si>
+  <si>
+    <t>07H7N60935</t>
+  </si>
+  <si>
+    <t>0572831382</t>
+  </si>
+  <si>
+    <t>10/26/2018</t>
+  </si>
+  <si>
+    <t>5/26/2019</t>
+  </si>
+  <si>
+    <t>478658315</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>Chambers</t>
+  </si>
+  <si>
+    <t>0592634119</t>
+  </si>
+  <si>
+    <t>Landon_Chambers@Xmail.com</t>
+  </si>
+  <si>
+    <t>C2IPY71161</t>
+  </si>
+  <si>
+    <t>369704228</t>
+  </si>
+  <si>
+    <t>Dyllan</t>
+  </si>
+  <si>
+    <t>Uflan</t>
+  </si>
+  <si>
+    <t>0533962681</t>
+  </si>
+  <si>
+    <t>Dyllan_Uflan@Ymail.com</t>
+  </si>
+  <si>
+    <t>042S34A27D</t>
+  </si>
+  <si>
+    <t>271614804</t>
+  </si>
+  <si>
+    <t>Alastair</t>
+  </si>
+  <si>
+    <t>Solberg</t>
+  </si>
+  <si>
+    <t>0535958860</t>
+  </si>
+  <si>
+    <t>Alastair_Solberg@Xmail.com</t>
+  </si>
+  <si>
+    <t>81Z0961JOJ</t>
+  </si>
+  <si>
+    <t>150437380</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>0593397389</t>
+  </si>
+  <si>
+    <t>Roman_Johnson@Dmail.com</t>
+  </si>
+  <si>
+    <t>316440262</t>
+  </si>
+  <si>
+    <t>11/12/2018</t>
+  </si>
+  <si>
+    <t>279T667WU7</t>
+  </si>
+  <si>
+    <t>0544815708</t>
+  </si>
+  <si>
+    <t>11/11/2018</t>
+  </si>
+  <si>
+    <t>6/11/2019</t>
+  </si>
+  <si>
+    <t>407044152</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>0502472017</t>
+  </si>
+  <si>
+    <t>AJ_Anderson@Amail.com</t>
+  </si>
+  <si>
+    <t>CM6C28YYOZ</t>
+  </si>
+  <si>
+    <t>0561551824</t>
+  </si>
+  <si>
+    <t>10/5/2019</t>
+  </si>
+  <si>
+    <t>200683482</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>Schwager</t>
+  </si>
+  <si>
+    <t>0529220901</t>
+  </si>
+  <si>
+    <t>Eden_Schwager@Fmail.com</t>
+  </si>
+  <si>
+    <t>11/6/2018</t>
+  </si>
+  <si>
+    <t>232Y18QQZ5</t>
+  </si>
+  <si>
+    <t>0503488528</t>
+  </si>
+  <si>
+    <t>10/30/2018</t>
+  </si>
+  <si>
+    <t>8/30/2019</t>
+  </si>
+  <si>
+    <t>0549885152</t>
+  </si>
+  <si>
+    <t>6/5/2019</t>
+  </si>
+  <si>
+    <t>203571281</t>
+  </si>
+  <si>
+    <t>Codi</t>
+  </si>
+  <si>
+    <t>Trusela</t>
+  </si>
+  <si>
+    <t>0527487678</t>
+  </si>
+  <si>
+    <t>Codi_Trusela@Imail.com</t>
+  </si>
+  <si>
+    <t>10/31/2018</t>
+  </si>
+  <si>
+    <t>GWH7O97821</t>
+  </si>
+  <si>
+    <t>149049427</t>
+  </si>
+  <si>
+    <t>Niall</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>0589969445</t>
+  </si>
+  <si>
+    <t>Niall_Vader@Zmail.com</t>
+  </si>
+  <si>
+    <t>PAB7JHS217</t>
+  </si>
+  <si>
+    <t>266622076</t>
+  </si>
+  <si>
+    <t>Vrishin</t>
+  </si>
+  <si>
+    <t>Lawicki</t>
+  </si>
+  <si>
+    <t>0526622627</t>
+  </si>
+  <si>
+    <t>Vrishin_Lawicki@Vmail.com</t>
+  </si>
+  <si>
+    <t>123333223</t>
+  </si>
+  <si>
+    <t>11/9/2018</t>
+  </si>
+  <si>
+    <t>S1924J00DP</t>
+  </si>
+  <si>
+    <t>268005135</t>
+  </si>
+  <si>
+    <t>Kaden</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>0502685484</t>
+  </si>
+  <si>
+    <t>Kaden_Jones@Lmail.com</t>
+  </si>
+  <si>
+    <t>OWQP0OG19U</t>
+  </si>
+  <si>
+    <t>275403026</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Jenson</t>
+  </si>
+  <si>
+    <t>0510408850</t>
+  </si>
+  <si>
+    <t>Danny_Jenson@Mmail.com</t>
+  </si>
+  <si>
+    <t>11/28/2018</t>
+  </si>
+  <si>
+    <t>0W41Z6HY70</t>
+  </si>
+  <si>
+    <t>0502060287</t>
+  </si>
+  <si>
+    <t>6/25/2019</t>
+  </si>
+  <si>
+    <t>088197412</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
+    <t>0575336758</t>
+  </si>
+  <si>
+    <t>Clarke_Yates@Email.com</t>
+  </si>
+  <si>
+    <t>11/1/2018</t>
+  </si>
+  <si>
+    <t>GWY84249B8</t>
+  </si>
+  <si>
+    <t>136210916</t>
+  </si>
+  <si>
+    <t>Modoulamin</t>
+  </si>
+  <si>
+    <t>Myers</t>
+  </si>
+  <si>
+    <t>0562774353</t>
+  </si>
+  <si>
+    <t>Modoulamin_Myers@Cmail.com</t>
+  </si>
+  <si>
+    <t>11/2/2018</t>
+  </si>
+  <si>
+    <t>C473M7C798</t>
+  </si>
+  <si>
+    <t>048827391</t>
+  </si>
+  <si>
+    <t>Zackary</t>
+  </si>
+  <si>
+    <t>Stahl</t>
+  </si>
+  <si>
+    <t>0509272947</t>
+  </si>
+  <si>
+    <t>Zackary_Stahl@Xmail.com</t>
+  </si>
+  <si>
+    <t>L62LO91I3Q</t>
+  </si>
+  <si>
+    <t>457186724</t>
+  </si>
+  <si>
+    <t>Derrie</t>
+  </si>
+  <si>
+    <t>Ulrich</t>
+  </si>
+  <si>
+    <t>0565620141</t>
+  </si>
+  <si>
+    <t>Derrie_Ulrich@Hmail.com</t>
+  </si>
+  <si>
+    <t>549F7QFA2V</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -49,8 +625,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -331,12 +908,983 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/History.xlsx
+++ b/project 8/bin/Debug/History.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF016C1C-7657-4C98-8744-B660A6E2B1FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5123BA-18B7-4B82-8938-0661BA914876}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,827 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="273">
+  <si>
+    <t>038233594</t>
+  </si>
+  <si>
+    <t>Jahid</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>0572015719</t>
+  </si>
+  <si>
+    <t>Jahid_Martin@Rmail.com</t>
+  </si>
+  <si>
+    <t>Closed won(100%)</t>
+  </si>
+  <si>
+    <t>316440262</t>
+  </si>
+  <si>
+    <t>don’t know what he wants in his life</t>
+  </si>
+  <si>
+    <t>YRSVIPT092</t>
+  </si>
+  <si>
+    <t>0552717490</t>
+  </si>
+  <si>
+    <t>0548880757</t>
+  </si>
+  <si>
+    <t>0512089125</t>
+  </si>
+  <si>
+    <t>176553750</t>
+  </si>
+  <si>
+    <t>Roddy</t>
+  </si>
+  <si>
+    <t>Fietzer</t>
+  </si>
+  <si>
+    <t>0536153892</t>
+  </si>
+  <si>
+    <t>Roddy_Fietzer@Nmail.com</t>
+  </si>
+  <si>
+    <t>316904978</t>
+  </si>
+  <si>
+    <t>9C487FBC78</t>
+  </si>
+  <si>
+    <t>0574135713</t>
+  </si>
+  <si>
+    <t>0521644718</t>
+  </si>
+  <si>
+    <t>0598575629</t>
+  </si>
+  <si>
+    <t>0554033152</t>
+  </si>
+  <si>
+    <t>093755536</t>
+  </si>
+  <si>
+    <t>Lewie</t>
+  </si>
+  <si>
+    <t>Schwager</t>
+  </si>
+  <si>
+    <t>0578329704</t>
+  </si>
+  <si>
+    <t>Lewie_Schwager@Gmail.com</t>
+  </si>
+  <si>
+    <t>AU8T2480WB</t>
+  </si>
+  <si>
+    <t>0571938600</t>
+  </si>
+  <si>
+    <t>0545529414</t>
+  </si>
+  <si>
+    <t>0526965304</t>
+  </si>
+  <si>
+    <t>0510749626</t>
+  </si>
+  <si>
+    <t>426756662</t>
+  </si>
+  <si>
+    <t>Muneeb</t>
+  </si>
+  <si>
+    <t>Ferro</t>
+  </si>
+  <si>
+    <t>0563921280</t>
+  </si>
+  <si>
+    <t>Muneeb_Ferro@Fmail.com</t>
+  </si>
+  <si>
+    <t>208063511</t>
+  </si>
+  <si>
+    <t>1024MR556Y</t>
+  </si>
+  <si>
+    <t>0513567038</t>
+  </si>
+  <si>
+    <t>0595725068</t>
+  </si>
+  <si>
+    <t>0537066831</t>
+  </si>
+  <si>
+    <t>0589584281</t>
+  </si>
+  <si>
+    <t>094356386</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Ziegler</t>
+  </si>
+  <si>
+    <t>0593599278</t>
+  </si>
+  <si>
+    <t>Reuben_Ziegler@Bmail.com</t>
+  </si>
+  <si>
+    <t>3A45G9TQNO</t>
+  </si>
+  <si>
+    <t>0530035937</t>
+  </si>
+  <si>
+    <t>0533828263</t>
+  </si>
+  <si>
+    <t>367695235</t>
+  </si>
+  <si>
+    <t>Corey-James</t>
+  </si>
+  <si>
+    <t>Woo</t>
+  </si>
+  <si>
+    <t>0542213710</t>
+  </si>
+  <si>
+    <t>Corey-James_Woo@Umail.com</t>
+  </si>
+  <si>
+    <t>313301129</t>
+  </si>
+  <si>
+    <t>C3OQ86ISH3</t>
+  </si>
+  <si>
+    <t>0592206080</t>
+  </si>
+  <si>
+    <t>0594916892</t>
+  </si>
+  <si>
+    <t>145927256</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>0598933064</t>
+  </si>
+  <si>
+    <t>Mickey_Davis@Tmail.com</t>
+  </si>
+  <si>
+    <t>Closed lost(0%)</t>
+  </si>
+  <si>
+    <t>204264543</t>
+  </si>
+  <si>
+    <t>4N8U43V4P9</t>
+  </si>
+  <si>
+    <t>0569887570</t>
+  </si>
+  <si>
+    <t>0560642442</t>
+  </si>
+  <si>
+    <t>0513940065</t>
+  </si>
+  <si>
+    <t>474033490</t>
+  </si>
+  <si>
+    <t>Ayman</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>0592091420</t>
+  </si>
+  <si>
+    <t>Ayman_Johnson@Ymail.com</t>
+  </si>
+  <si>
+    <t>U91A7N3261</t>
+  </si>
+  <si>
+    <t>0573145407</t>
+  </si>
+  <si>
+    <t>0558247268</t>
+  </si>
+  <si>
+    <t>0527703632</t>
+  </si>
+  <si>
+    <t>0560224760</t>
+  </si>
+  <si>
+    <t>445053313</t>
+  </si>
+  <si>
+    <t>Anselm</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>0506934007</t>
+  </si>
+  <si>
+    <t>Anselm_Thompson@Smail.com</t>
+  </si>
+  <si>
+    <t>0AP38OJTBP</t>
+  </si>
+  <si>
+    <t>0547776384</t>
+  </si>
+  <si>
+    <t>0509133243</t>
+  </si>
+  <si>
+    <t>459837061</t>
+  </si>
+  <si>
+    <t>Filippo</t>
+  </si>
+  <si>
+    <t>Soukup</t>
+  </si>
+  <si>
+    <t>0590312627</t>
+  </si>
+  <si>
+    <t>Filippo_Soukup@Amail.com</t>
+  </si>
+  <si>
+    <t>WQ91Q4Q946</t>
+  </si>
+  <si>
+    <t>0512378575</t>
+  </si>
+  <si>
+    <t>0519450911</t>
+  </si>
+  <si>
+    <t>0501276726</t>
+  </si>
+  <si>
+    <t>271664272</t>
+  </si>
+  <si>
+    <t>Kalvyn</t>
+  </si>
+  <si>
+    <t>Ostrander</t>
+  </si>
+  <si>
+    <t>0580394807</t>
+  </si>
+  <si>
+    <t>Kalvyn_Ostrander@Hmail.com</t>
+  </si>
+  <si>
+    <t>X97UGGW85K</t>
+  </si>
+  <si>
+    <t>0595321990</t>
+  </si>
+  <si>
+    <t>0512342327</t>
+  </si>
+  <si>
+    <t>0579456168</t>
+  </si>
+  <si>
+    <t>0597529596</t>
+  </si>
+  <si>
+    <t>270755287</t>
+  </si>
+  <si>
+    <t>Rylee</t>
+  </si>
+  <si>
+    <t>Sandstrom</t>
+  </si>
+  <si>
+    <t>0590250687</t>
+  </si>
+  <si>
+    <t>Rylee_Sandstrom@Tmail.com</t>
+  </si>
+  <si>
+    <t>8G9G7CJNQ6</t>
+  </si>
+  <si>
+    <t>0530357311</t>
+  </si>
+  <si>
+    <t>0556959520</t>
+  </si>
+  <si>
+    <t>0562480634</t>
+  </si>
+  <si>
+    <t>291441457</t>
+  </si>
+  <si>
+    <t>Aden</t>
+  </si>
+  <si>
+    <t>Olson</t>
+  </si>
+  <si>
+    <t>0554236105</t>
+  </si>
+  <si>
+    <t>Aden_Olson@Vmail.com</t>
+  </si>
+  <si>
+    <t>EFSV4L24W2</t>
+  </si>
+  <si>
+    <t>0509790927</t>
+  </si>
+  <si>
+    <t>0500937143</t>
+  </si>
+  <si>
+    <t>0584118734</t>
+  </si>
+  <si>
+    <t>384340247</t>
+  </si>
+  <si>
+    <t>Dalong</t>
+  </si>
+  <si>
+    <t>Soloman</t>
+  </si>
+  <si>
+    <t>0529479637</t>
+  </si>
+  <si>
+    <t>Dalong_Soloman@Xmail.com</t>
+  </si>
+  <si>
+    <t>254M0243AB</t>
+  </si>
+  <si>
+    <t>0533199308</t>
+  </si>
+  <si>
+    <t>0594694163</t>
+  </si>
+  <si>
+    <t>0569540473</t>
+  </si>
+  <si>
+    <t>0582082866</t>
+  </si>
+  <si>
+    <t>248030525</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>0597387268</t>
+  </si>
+  <si>
+    <t>Jerome_Nelson@Tmail.com</t>
+  </si>
+  <si>
+    <t>B936YU1Q2C</t>
+  </si>
+  <si>
+    <t>0549527534</t>
+  </si>
+  <si>
+    <t>0548608852</t>
+  </si>
+  <si>
+    <t>193256541</t>
+  </si>
+  <si>
+    <t>Sayeed</t>
+  </si>
+  <si>
+    <t>Ripka</t>
+  </si>
+  <si>
+    <t>0501273769</t>
+  </si>
+  <si>
+    <t>Sayeed_Ripka@Bmail.com</t>
+  </si>
+  <si>
+    <t>9F7928518C</t>
+  </si>
+  <si>
+    <t>0572330068</t>
+  </si>
+  <si>
+    <t>0543763094</t>
+  </si>
+  <si>
+    <t>044686645</t>
+  </si>
+  <si>
+    <t>Idrees</t>
+  </si>
+  <si>
+    <t>Napier</t>
+  </si>
+  <si>
+    <t>0537465692</t>
+  </si>
+  <si>
+    <t>Idrees_Napier@Amail.com</t>
+  </si>
+  <si>
+    <t>QM388649PI</t>
+  </si>
+  <si>
+    <t>0525053350</t>
+  </si>
+  <si>
+    <t>0511211323</t>
+  </si>
+  <si>
+    <t>0501939701</t>
+  </si>
+  <si>
+    <t>250618255</t>
+  </si>
+  <si>
+    <t>Bowie</t>
+  </si>
+  <si>
+    <t>0579806367</t>
+  </si>
+  <si>
+    <t>Bowie_Fietzer@Amail.com</t>
+  </si>
+  <si>
+    <t>XN7GW6MMZS</t>
+  </si>
+  <si>
+    <t>0594438439</t>
+  </si>
+  <si>
+    <t>0508304906</t>
+  </si>
+  <si>
+    <t>0554503525</t>
+  </si>
+  <si>
+    <t>0582298355</t>
+  </si>
+  <si>
+    <t>098859335</t>
+  </si>
+  <si>
+    <t>Nasser</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>0546174405</t>
+  </si>
+  <si>
+    <t>Nasser_Irwin@Lmail.com</t>
+  </si>
+  <si>
+    <t>Y8OXLN7KD5</t>
+  </si>
+  <si>
+    <t>0585634841</t>
+  </si>
+  <si>
+    <t>0564508209</t>
+  </si>
+  <si>
+    <t>0534041235</t>
+  </si>
+  <si>
+    <t>0561719743</t>
+  </si>
+  <si>
+    <t>459212528</t>
+  </si>
+  <si>
+    <t>Kaydyne</t>
+  </si>
+  <si>
+    <t>Kaskel</t>
+  </si>
+  <si>
+    <t>0525300924</t>
+  </si>
+  <si>
+    <t>Kaydyne_Kaskel@Mmail.com</t>
+  </si>
+  <si>
+    <t>3L4B5B76O1</t>
+  </si>
+  <si>
+    <t>0539106361</t>
+  </si>
+  <si>
+    <t>0581736460</t>
+  </si>
+  <si>
+    <t>0512373747</t>
+  </si>
+  <si>
+    <t>0594463155</t>
+  </si>
+  <si>
+    <t>075221878</t>
+  </si>
+  <si>
+    <t>Madox</t>
+  </si>
+  <si>
+    <t>Leisinger</t>
+  </si>
+  <si>
+    <t>0538588547</t>
+  </si>
+  <si>
+    <t>Madox_Leisinger@Xmail.com</t>
+  </si>
+  <si>
+    <t>VQD798P55J</t>
+  </si>
+  <si>
+    <t>0556555784</t>
+  </si>
+  <si>
+    <t>0587250467</t>
+  </si>
+  <si>
+    <t>0568449306</t>
+  </si>
+  <si>
+    <t>0518613345</t>
+  </si>
+  <si>
+    <t>270095694</t>
+  </si>
+  <si>
+    <t>Kelan</t>
+  </si>
+  <si>
+    <t>McGinnis</t>
+  </si>
+  <si>
+    <t>0513631658</t>
+  </si>
+  <si>
+    <t>Kelan_McGinnis@Smail.com</t>
+  </si>
+  <si>
+    <t>0ZVUF0315Z</t>
+  </si>
+  <si>
+    <t>0540902319</t>
+  </si>
+  <si>
+    <t>0512343166</t>
+  </si>
+  <si>
+    <t>0518479698</t>
+  </si>
+  <si>
+    <t>183184246</t>
+  </si>
+  <si>
+    <t>Kori</t>
+  </si>
+  <si>
+    <t>Weinstein</t>
+  </si>
+  <si>
+    <t>0524168445</t>
+  </si>
+  <si>
+    <t>Kori_Weinstein@Zmail.com</t>
+  </si>
+  <si>
+    <t>6W5VORUSQK</t>
+  </si>
+  <si>
+    <t>0506602375</t>
+  </si>
+  <si>
+    <t>0500658914</t>
+  </si>
+  <si>
+    <t>0549910508</t>
+  </si>
+  <si>
+    <t>0570636740</t>
+  </si>
+  <si>
+    <t>450900467</t>
+  </si>
+  <si>
+    <t>Lachlann</t>
+  </si>
+  <si>
+    <t>Mccord</t>
+  </si>
+  <si>
+    <t>0573190445</t>
+  </si>
+  <si>
+    <t>Lachlann_Mccord@Qmail.com</t>
+  </si>
+  <si>
+    <t>CLL9RFV9BA</t>
+  </si>
+  <si>
+    <t>0500301227</t>
+  </si>
+  <si>
+    <t>0585180701</t>
+  </si>
+  <si>
+    <t>0525776815</t>
+  </si>
+  <si>
+    <t>439664387</t>
+  </si>
+  <si>
+    <t>Kyral</t>
+  </si>
+  <si>
+    <t>Shaffer</t>
+  </si>
+  <si>
+    <t>0505096357</t>
+  </si>
+  <si>
+    <t>Kyral_Shaffer@Rmail.com</t>
+  </si>
+  <si>
+    <t>G10MMDL1VQ</t>
+  </si>
+  <si>
+    <t>0522937811</t>
+  </si>
+  <si>
+    <t>0577611051</t>
+  </si>
+  <si>
+    <t>0552307045</t>
+  </si>
+  <si>
+    <t>0569291106</t>
+  </si>
+  <si>
+    <t>191966479</t>
+  </si>
+  <si>
+    <t>Leilan</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>0560893239</t>
+  </si>
+  <si>
+    <t>Leilan_Cast@Umail.com</t>
+  </si>
+  <si>
+    <t>HNUCCZ61Z4</t>
+  </si>
+  <si>
+    <t>0593375590</t>
+  </si>
+  <si>
+    <t>0542545114</t>
+  </si>
+  <si>
+    <t>0563553273</t>
+  </si>
+  <si>
+    <t>086386322</t>
+  </si>
+  <si>
+    <t>Nihaal</t>
+  </si>
+  <si>
+    <t>Reardon</t>
+  </si>
+  <si>
+    <t>0594234983</t>
+  </si>
+  <si>
+    <t>Nihaal_Reardon@Qmail.com</t>
+  </si>
+  <si>
+    <t>2241GQT682</t>
+  </si>
+  <si>
+    <t>0535974223</t>
+  </si>
+  <si>
+    <t>0568458705</t>
+  </si>
+  <si>
+    <t>261793950</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>0585207764</t>
+  </si>
+  <si>
+    <t>Marcin_Sagar@Xmail.com</t>
+  </si>
+  <si>
+    <t>CT21678G04</t>
+  </si>
+  <si>
+    <t>0549565556</t>
+  </si>
+  <si>
+    <t>0576884380</t>
+  </si>
+  <si>
+    <t>189830564</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Pettigrew</t>
+  </si>
+  <si>
+    <t>0584861211</t>
+  </si>
+  <si>
+    <t>Jacques_Pettigrew@Vmail.com</t>
+  </si>
+  <si>
+    <t>8UF5J2D266</t>
+  </si>
+  <si>
+    <t>0546121044</t>
+  </si>
+  <si>
+    <t>0530475368</t>
+  </si>
+  <si>
+    <t>0531870781</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,9 +875,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -338,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,35 +1173,2806 @@
     <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43354</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43421</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>43425</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>43419</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43434</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="2">
+        <v>43426</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43430</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="2">
+        <v>43426</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="2">
+        <v>43433</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="2">
+        <v>43418</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43423</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="2">
+        <v>43430</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>43171</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43433</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2">
+        <v>43354</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="2">
+        <v>43418</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>43426</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="2">
+        <v>43422</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2">
+        <v>43202</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>43143</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" s="2">
+        <v>43433</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2">
+        <v>43171</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="2">
+        <v>43232</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2">
+        <v>43422</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>43415</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2">
+        <v>43423</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="2">
+        <v>43418</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="2">
+        <v>43171</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="2">
+        <v>43292</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A99" sqref="A1:XFD99"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43201</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43562</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43231</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43594</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43292</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43654</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43753</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43751</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43774</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43775</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43631</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43421</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43755</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43692</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43384</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43748</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43777</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43598</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43779</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43432</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43644</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43614</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43789</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43730</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>43430</v>
+      </c>
+      <c r="E20" s="2">
+        <v>43795</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43641</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E22" s="2">
+        <v>43605</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E23" s="2">
+        <v>43604</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>43424</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43636</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>43421</v>
+      </c>
+      <c r="E25" s="2">
+        <v>43694</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E26" s="2">
+        <v>43634</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E27" s="2">
+        <v>43671</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43794</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>43354</v>
+      </c>
+      <c r="E29" s="2">
+        <v>43717</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E30" s="2">
+        <v>43809</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43629</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43696</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E33" s="2">
+        <v>43723</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E34" s="2">
+        <v>43751</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E35" s="2">
+        <v>43810</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E36" s="2">
+        <v>43641</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2">
+        <v>43428</v>
+      </c>
+      <c r="E37" s="2">
+        <v>43670</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43792</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>43112</v>
+      </c>
+      <c r="E39" s="2">
+        <v>43475</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>43432</v>
+      </c>
+      <c r="E40" s="2">
+        <v>43736</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>43431</v>
+      </c>
+      <c r="E41" s="2">
+        <v>43643</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>43432</v>
+      </c>
+      <c r="E42" s="2">
+        <v>43613</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E43" s="2">
+        <v>43700</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E44" s="2">
+        <v>43791</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43427</v>
+      </c>
+      <c r="E45" s="2">
+        <v>43792</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2">
+        <v>43292</v>
+      </c>
+      <c r="E46" s="2">
+        <v>43656</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2">
+        <v>43292</v>
+      </c>
+      <c r="E47" s="2">
+        <v>43651</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E48" s="2">
+        <v>43721</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E49" s="2">
+        <v>43659</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E50" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E51" s="2">
+        <v>43754</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E52" s="2">
+        <v>43726</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2">
+        <v>43419</v>
+      </c>
+      <c r="E53" s="2">
+        <v>43631</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E54" s="2">
+        <v>43805</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>43420</v>
+      </c>
+      <c r="E55" s="2">
+        <v>43632</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>43422</v>
+      </c>
+      <c r="E56" s="2">
+        <v>43664</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="1">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>43431</v>
+      </c>
+      <c r="E57" s="2">
+        <v>43765</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C58" s="1">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>43171</v>
+      </c>
+      <c r="E58" s="2">
+        <v>43531</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E59" s="2">
+        <v>43798</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>43431</v>
+      </c>
+      <c r="E60" s="2">
+        <v>43643</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E61" s="2">
+        <v>43706</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>43429</v>
+      </c>
+      <c r="E62" s="2">
+        <v>43610</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>43143</v>
+      </c>
+      <c r="E63" s="2">
+        <v>43508</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>43112</v>
+      </c>
+      <c r="E64" s="2">
+        <v>43476</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="1">
+        <v>3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E65" s="2">
+        <v>43760</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E66" s="2">
+        <v>43798</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2">
+        <v>43431</v>
+      </c>
+      <c r="E67" s="2">
+        <v>43796</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>43426</v>
+      </c>
+      <c r="E68" s="2">
+        <v>43699</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="1">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E69" s="2">
+        <v>43614</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>43143</v>
+      </c>
+      <c r="E70" s="2">
+        <v>43508</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="1">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2">
+        <v>43430</v>
+      </c>
+      <c r="E71" s="2">
+        <v>43703</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2">
+        <v>43143</v>
+      </c>
+      <c r="E72" s="2">
+        <v>43502</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="1">
+        <v>3</v>
+      </c>
+      <c r="D73" s="2">
+        <v>43433</v>
+      </c>
+      <c r="E73" s="2">
+        <v>43645</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E74" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E75" s="2">
+        <v>43768</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>43421</v>
+      </c>
+      <c r="E76" s="2">
+        <v>43663</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E77" s="2">
+        <v>43778</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E78" s="2">
+        <v>43804</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>43231</v>
+      </c>
+      <c r="E79" s="2">
+        <v>43594</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>43415</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43780</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2</v>
+      </c>
+      <c r="D81" s="2">
+        <v>43201</v>
+      </c>
+      <c r="E81" s="2">
+        <v>43564</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="1">
+        <v>3</v>
+      </c>
+      <c r="D82" s="2">
+        <v>43262</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43623</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>43423</v>
+      </c>
+      <c r="E83" s="2">
+        <v>43696</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E84" s="2">
+        <v>43808</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2</v>
+      </c>
+      <c r="D85" s="2">
+        <v>43418</v>
+      </c>
+      <c r="E85" s="2">
+        <v>43599</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>43445</v>
+      </c>
+      <c r="E86" s="2">
+        <v>43804</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C87" s="1">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2">
+        <v>43354</v>
+      </c>
+      <c r="E87" s="2">
+        <v>43719</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>43434</v>
+      </c>
+      <c r="E88" s="2">
+        <v>43707</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2">
+        <v>43143</v>
+      </c>
+      <c r="E89" s="2">
+        <v>43506</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2</v>
+      </c>
+      <c r="D90" s="2">
+        <v>43231</v>
+      </c>
+      <c r="E90" s="2">
+        <v>43590</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2">
+        <v>43111</v>
+      </c>
+      <c r="E91" s="2">
+        <v>43472</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" s="1">
+        <v>2</v>
+      </c>
+      <c r="D92" s="2">
+        <v>43262</v>
+      </c>
+      <c r="E92" s="2">
+        <v>43622</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project 8/bin/Debug/History.xlsx
+++ b/project 8/bin/Debug/History.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C6ED75-4735-472C-8781-DA4DA6B80428}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54760EB5-54D4-4B1B-A974-24B03E593F1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="7905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="963">
   <si>
     <t>294373709</t>
   </si>
@@ -2832,6 +2832,84 @@
   </si>
   <si>
     <t>0521584057</t>
+  </si>
+  <si>
+    <t>342000655</t>
+  </si>
+  <si>
+    <t>Kyro</t>
+  </si>
+  <si>
+    <t>Johnsen</t>
+  </si>
+  <si>
+    <t>0527290650</t>
+  </si>
+  <si>
+    <t>Kyro_Johnsen@Jmail.com</t>
+  </si>
+  <si>
+    <t>C4J84051MW</t>
+  </si>
+  <si>
+    <t>0553433342</t>
+  </si>
+  <si>
+    <t>0536921410</t>
+  </si>
+  <si>
+    <t>O78YEEH16E</t>
+  </si>
+  <si>
+    <t>X24EU69882</t>
+  </si>
+  <si>
+    <t>171073405</t>
+  </si>
+  <si>
+    <t>Ryderi</t>
+  </si>
+  <si>
+    <t>0583113772</t>
+  </si>
+  <si>
+    <t>Ryder_Reamer@Lmail.com</t>
+  </si>
+  <si>
+    <t>don’t know what he wants in his life yet</t>
+  </si>
+  <si>
+    <t>4PQCJZGZ7Q</t>
+  </si>
+  <si>
+    <t>0533744671</t>
+  </si>
+  <si>
+    <t>0581279283</t>
+  </si>
+  <si>
+    <t>0506954641</t>
+  </si>
+  <si>
+    <t>236263121</t>
+  </si>
+  <si>
+    <t>Patrick-John</t>
+  </si>
+  <si>
+    <t>0526700677</t>
+  </si>
+  <si>
+    <t>Patrick-John_Caswell@Umail.com</t>
+  </si>
+  <si>
+    <t>94OU5KH91Q</t>
+  </si>
+  <si>
+    <t>0517142261</t>
+  </si>
+  <si>
+    <t>0523344409</t>
   </si>
 </sst>
 </file>
@@ -3151,7 +3229,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J117"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
@@ -6915,6 +6993,166 @@
         <v>935</v>
       </c>
     </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H118" s="2">
+        <v>43445</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H119" s="2">
+        <v>43445</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H120" s="2">
+        <v>43445</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="2">
+        <v>43445</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H122" s="2">
+        <v>43445</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -6923,7 +7161,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H258"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K24" sqref="K24"/>
@@ -12099,6 +12337,226 @@
         <v>935</v>
       </c>
     </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C259" s="1">
+        <v>3</v>
+      </c>
+      <c r="D259" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E259" s="2">
+        <v>43597</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C260" s="1">
+        <v>2</v>
+      </c>
+      <c r="D260" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E260" s="2">
+        <v>43659</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C261" s="1">
+        <v>3</v>
+      </c>
+      <c r="D261" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E261" s="2">
+        <v>43597</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C262" s="1">
+        <v>2</v>
+      </c>
+      <c r="D262" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E262" s="2">
+        <v>43659</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C263" s="1">
+        <v>3</v>
+      </c>
+      <c r="D263" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E263" s="2">
+        <v>43597</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C264" s="1">
+        <v>2</v>
+      </c>
+      <c r="D264" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E264" s="2">
+        <v>43659</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C265" s="1">
+        <v>1</v>
+      </c>
+      <c r="D265" s="2">
+        <v>43416</v>
+      </c>
+      <c r="E265" s="2">
+        <v>43628</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C266" s="1">
+        <v>2</v>
+      </c>
+      <c r="D266" s="2">
+        <v>43413</v>
+      </c>
+      <c r="E266" s="2">
+        <v>43778</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C267" s="1">
+        <v>3</v>
+      </c>
+      <c r="D267" s="2">
+        <v>43417</v>
+      </c>
+      <c r="E267" s="2">
+        <v>43690</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C268" s="1">
+        <v>3</v>
+      </c>
+      <c r="D268" s="2">
+        <v>43408</v>
+      </c>
+      <c r="E268" s="2">
+        <v>43620</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C269" s="1">
+        <v>2</v>
+      </c>
+      <c r="D269" s="2">
+        <v>43411</v>
+      </c>
+      <c r="E269" s="2">
+        <v>43776</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/project 8/bin/Debug/History.xlsx
+++ b/project 8/bin/Debug/History.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA260B3-E87E-4B00-A8B5-09AEEE85C08A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F278FE-9603-48B2-95D5-32A9C2C26D8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1173">
   <si>
     <t>400837090</t>
   </si>
@@ -3519,6 +3519,27 @@
   </si>
   <si>
     <t>0570894775</t>
+  </si>
+  <si>
+    <t>087605074</t>
+  </si>
+  <si>
+    <t>Calum-James</t>
+  </si>
+  <si>
+    <t>0513751147</t>
+  </si>
+  <si>
+    <t>Calum-James_Paiser@Dmail.com</t>
+  </si>
+  <si>
+    <t>XBEMFAZB6O</t>
+  </si>
+  <si>
+    <t>0539949849</t>
+  </si>
+  <si>
+    <t>0575554486</t>
   </si>
 </sst>
 </file>
@@ -3529,7 +3550,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3838,13 +3859,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J153"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -3858,7 +3879,7 @@
     <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3890,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3922,7 +3943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3954,7 +3975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +4007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4018,7 +4039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,7 +4071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -4082,7 +4103,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -4114,7 +4135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -4146,7 +4167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -4178,7 +4199,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -4242,7 +4263,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -4274,7 +4295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -4306,7 +4327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4338,7 +4359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -4370,7 +4391,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -4402,7 +4423,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -4434,7 +4455,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4466,7 +4487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -4498,7 +4519,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>171</v>
       </c>
@@ -4530,7 +4551,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
@@ -4562,7 +4583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -4594,7 +4615,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
@@ -4626,7 +4647,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>201</v>
       </c>
@@ -4658,7 +4679,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -4690,7 +4711,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>216</v>
       </c>
@@ -4722,7 +4743,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>224</v>
       </c>
@@ -4754,7 +4775,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>231</v>
       </c>
@@ -4786,7 +4807,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>239</v>
       </c>
@@ -4818,7 +4839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>248</v>
       </c>
@@ -4850,7 +4871,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>256</v>
       </c>
@@ -4882,7 +4903,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>264</v>
       </c>
@@ -4914,7 +4935,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>270</v>
       </c>
@@ -4946,7 +4967,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>277</v>
       </c>
@@ -4978,7 +4999,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>284</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>290</v>
       </c>
@@ -5042,7 +5063,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>297</v>
       </c>
@@ -5074,7 +5095,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>304</v>
       </c>
@@ -5106,7 +5127,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>313</v>
       </c>
@@ -5138,7 +5159,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>322</v>
       </c>
@@ -5170,7 +5191,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>331</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>338</v>
       </c>
@@ -5234,7 +5255,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>347</v>
       </c>
@@ -5266,7 +5287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>356</v>
       </c>
@@ -5298,7 +5319,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>363</v>
       </c>
@@ -5330,7 +5351,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>370</v>
       </c>
@@ -5362,7 +5383,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>379</v>
       </c>
@@ -5394,7 +5415,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>387</v>
       </c>
@@ -5426,7 +5447,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>395</v>
       </c>
@@ -5458,7 +5479,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>402</v>
       </c>
@@ -5490,7 +5511,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>409</v>
       </c>
@@ -5522,7 +5543,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>417</v>
       </c>
@@ -5554,7 +5575,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>424</v>
       </c>
@@ -5586,7 +5607,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>431</v>
       </c>
@@ -5618,7 +5639,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>440</v>
       </c>
@@ -5650,7 +5671,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>447</v>
       </c>
@@ -5682,7 +5703,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>455</v>
       </c>
@@ -5714,7 +5735,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>463</v>
       </c>
@@ -5746,7 +5767,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>471</v>
       </c>
@@ -5778,7 +5799,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>478</v>
       </c>
@@ -5810,7 +5831,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>486</v>
       </c>
@@ -5842,7 +5863,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>495</v>
       </c>
@@ -5874,7 +5895,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>503</v>
       </c>
@@ -5906,7 +5927,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>510</v>
       </c>
@@ -5938,7 +5959,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>518</v>
       </c>
@@ -5970,7 +5991,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>525</v>
       </c>
@@ -6002,7 +6023,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>532</v>
       </c>
@@ -6034,7 +6055,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>541</v>
       </c>
@@ -6066,7 +6087,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>550</v>
       </c>
@@ -6098,7 +6119,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>556</v>
       </c>
@@ -6130,7 +6151,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>564</v>
       </c>
@@ -6162,7 +6183,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>572</v>
       </c>
@@ -6194,7 +6215,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>580</v>
       </c>
@@ -6226,7 +6247,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>588</v>
       </c>
@@ -6258,7 +6279,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>596</v>
       </c>
@@ -6290,7 +6311,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>604</v>
       </c>
@@ -6322,7 +6343,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>612</v>
       </c>
@@ -6354,7 +6375,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>620</v>
       </c>
@@ -6386,7 +6407,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>628</v>
       </c>
@@ -6418,7 +6439,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>634</v>
       </c>
@@ -6450,7 +6471,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>642</v>
       </c>
@@ -6482,7 +6503,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>649</v>
       </c>
@@ -6514,7 +6535,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>656</v>
       </c>
@@ -6546,7 +6567,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>662</v>
       </c>
@@ -6578,7 +6599,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>671</v>
       </c>
@@ -6610,7 +6631,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>678</v>
       </c>
@@ -6642,7 +6663,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>687</v>
       </c>
@@ -6674,7 +6695,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>696</v>
       </c>
@@ -6706,7 +6727,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>703</v>
       </c>
@@ -6738,7 +6759,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>710</v>
       </c>
@@ -6770,7 +6791,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>717</v>
       </c>
@@ -6802,7 +6823,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>726</v>
       </c>
@@ -6834,7 +6855,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>734</v>
       </c>
@@ -6866,7 +6887,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>741</v>
       </c>
@@ -6898,7 +6919,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>747</v>
       </c>
@@ -6930,7 +6951,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>753</v>
       </c>
@@ -6962,7 +6983,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>762</v>
       </c>
@@ -6994,7 +7015,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>769</v>
       </c>
@@ -7026,7 +7047,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>777</v>
       </c>
@@ -7058,7 +7079,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>785</v>
       </c>
@@ -7090,7 +7111,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>792</v>
       </c>
@@ -7122,7 +7143,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>799</v>
       </c>
@@ -7154,7 +7175,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>806</v>
       </c>
@@ -7186,7 +7207,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>811</v>
       </c>
@@ -7218,7 +7239,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>817</v>
       </c>
@@ -7250,7 +7271,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>825</v>
       </c>
@@ -7282,7 +7303,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>831</v>
       </c>
@@ -7314,7 +7335,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>838</v>
       </c>
@@ -7346,7 +7367,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>847</v>
       </c>
@@ -7378,7 +7399,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>854</v>
       </c>
@@ -7410,7 +7431,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>862</v>
       </c>
@@ -7442,7 +7463,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>871</v>
       </c>
@@ -7474,7 +7495,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>877</v>
       </c>
@@ -7506,7 +7527,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>883</v>
       </c>
@@ -7538,7 +7559,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>891</v>
       </c>
@@ -7570,7 +7591,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>897</v>
       </c>
@@ -7602,7 +7623,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>904</v>
       </c>
@@ -7634,7 +7655,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>913</v>
       </c>
@@ -7666,7 +7687,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>921</v>
       </c>
@@ -7698,7 +7719,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>928</v>
       </c>
@@ -7730,7 +7751,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>935</v>
       </c>
@@ -7762,7 +7783,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>942</v>
       </c>
@@ -7794,7 +7815,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>950</v>
       </c>
@@ -7826,7 +7847,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>956</v>
       </c>
@@ -7858,7 +7879,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>963</v>
       </c>
@@ -7890,7 +7911,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>969</v>
       </c>
@@ -7922,7 +7943,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>976</v>
       </c>
@@ -7954,7 +7975,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>981</v>
       </c>
@@ -7986,7 +8007,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>988</v>
       </c>
@@ -8018,7 +8039,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>996</v>
       </c>
@@ -8050,7 +8071,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>1004</v>
       </c>
@@ -8082,7 +8103,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>1010</v>
       </c>
@@ -8114,7 +8135,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>1017</v>
       </c>
@@ -8146,7 +8167,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>1025</v>
       </c>
@@ -8178,7 +8199,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8210,7 +8231,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8242,7 +8263,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>1049</v>
       </c>
@@ -8274,7 +8295,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>1056</v>
       </c>
@@ -8306,7 +8327,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>1063</v>
       </c>
@@ -8338,7 +8359,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8370,7 +8391,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>1078</v>
       </c>
@@ -8402,7 +8423,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>1084</v>
       </c>
@@ -8434,7 +8455,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8466,7 +8487,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>1097</v>
       </c>
@@ -8498,7 +8519,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>1105</v>
       </c>
@@ -8530,7 +8551,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>1111</v>
       </c>
@@ -8562,7 +8583,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>1119</v>
       </c>
@@ -8594,7 +8615,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>1125</v>
       </c>
@@ -8626,7 +8647,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>1133</v>
       </c>
@@ -8658,7 +8679,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>1141</v>
       </c>
@@ -8690,7 +8711,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>1149</v>
       </c>
@@ -8722,7 +8743,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>1157</v>
       </c>
@@ -8752,6 +8773,38 @@
       </c>
       <c r="J153" s="1" t="s">
         <v>1162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H154" s="2">
+        <v>43450</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>
@@ -8762,13 +8815,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
     <sheetView topLeftCell="A277" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -8778,7 +8831,7 @@
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8798,7 +8851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8818,7 +8871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -8838,7 +8891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8858,7 +8911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -8878,7 +8931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8898,7 +8951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -8918,7 +8971,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -8938,7 +8991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -8958,7 +9011,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -8978,7 +9031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -8998,7 +9051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -9018,7 +9071,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -9038,7 +9091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -9058,7 +9111,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -9078,7 +9131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -9098,7 +9151,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -9118,7 +9171,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -9138,7 +9191,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -9158,7 +9211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -9178,7 +9231,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -9198,7 +9251,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -9218,7 +9271,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -9238,7 +9291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -9258,7 +9311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -9278,7 +9331,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -9298,7 +9351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -9318,7 +9371,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -9338,7 +9391,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -9358,7 +9411,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
@@ -9378,7 +9431,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -9398,7 +9451,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -9418,7 +9471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -9438,7 +9491,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
@@ -9458,7 +9511,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -9478,7 +9531,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -9498,7 +9551,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -9518,7 +9571,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -9538,7 +9591,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -9558,7 +9611,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -9578,7 +9631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -9598,7 +9651,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
@@ -9618,7 +9671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -9638,7 +9691,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
@@ -9658,7 +9711,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -9678,7 +9731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
@@ -9698,7 +9751,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>179</v>
       </c>
@@ -9718,7 +9771,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
@@ -9738,7 +9791,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
@@ -9758,7 +9811,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>186</v>
       </c>
@@ -9778,7 +9831,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -9798,7 +9851,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>201</v>
       </c>
@@ -9818,7 +9871,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>201</v>
       </c>
@@ -9838,7 +9891,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>209</v>
       </c>
@@ -9858,7 +9911,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
@@ -9878,7 +9931,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
@@ -9898,7 +9951,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
@@ -9918,7 +9971,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -9938,7 +9991,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>231</v>
       </c>
@@ -9958,7 +10011,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>239</v>
       </c>
@@ -9978,7 +10031,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>239</v>
       </c>
@@ -9998,7 +10051,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
@@ -10018,7 +10071,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>248</v>
       </c>
@@ -10038,7 +10091,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>248</v>
       </c>
@@ -10058,7 +10111,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>256</v>
       </c>
@@ -10078,7 +10131,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>256</v>
       </c>
@@ -10098,7 +10151,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>264</v>
       </c>
@@ -10118,7 +10171,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -10138,7 +10191,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>270</v>
       </c>
@@ -10158,7 +10211,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>277</v>
       </c>
@@ -10178,7 +10231,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>284</v>
       </c>
@@ -10198,7 +10251,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>290</v>
       </c>
@@ -10218,7 +10271,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>297</v>
       </c>
@@ -10238,7 +10291,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>297</v>
       </c>
@@ -10258,7 +10311,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>304</v>
       </c>
@@ -10278,7 +10331,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>304</v>
       </c>
@@ -10298,7 +10351,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>304</v>
       </c>
@@ -10318,7 +10371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>313</v>
       </c>
@@ -10338,7 +10391,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>313</v>
       </c>
@@ -10358,7 +10411,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>313</v>
       </c>
@@ -10378,7 +10431,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
@@ -10398,7 +10451,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>322</v>
       </c>
@@ -10418,7 +10471,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>322</v>
       </c>
@@ -10438,7 +10491,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>331</v>
       </c>
@@ -10458,7 +10511,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>331</v>
       </c>
@@ -10478,7 +10531,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>338</v>
       </c>
@@ -10498,7 +10551,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>338</v>
       </c>
@@ -10518,7 +10571,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>338</v>
       </c>
@@ -10538,7 +10591,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>347</v>
       </c>
@@ -10558,7 +10611,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>347</v>
       </c>
@@ -10578,7 +10631,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>347</v>
       </c>
@@ -10598,7 +10651,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>356</v>
       </c>
@@ -10618,7 +10671,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>363</v>
       </c>
@@ -10638,7 +10691,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>370</v>
       </c>
@@ -10658,7 +10711,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>370</v>
       </c>
@@ -10678,7 +10731,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>370</v>
       </c>
@@ -10698,7 +10751,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>379</v>
       </c>
@@ -10718,7 +10771,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>379</v>
       </c>
@@ -10738,7 +10791,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>379</v>
       </c>
@@ -10758,7 +10811,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>387</v>
       </c>
@@ -10778,7 +10831,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>387</v>
       </c>
@@ -10798,7 +10851,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>395</v>
       </c>
@@ -10818,7 +10871,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>402</v>
       </c>
@@ -10838,7 +10891,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>409</v>
       </c>
@@ -10858,7 +10911,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>409</v>
       </c>
@@ -10878,7 +10931,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>409</v>
       </c>
@@ -10898,7 +10951,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -10918,7 +10971,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>424</v>
       </c>
@@ -10938,7 +10991,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>431</v>
       </c>
@@ -10958,7 +11011,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>431</v>
       </c>
@@ -10978,7 +11031,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>431</v>
       </c>
@@ -10998,7 +11051,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>440</v>
       </c>
@@ -11018,7 +11071,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>447</v>
       </c>
@@ -11038,7 +11091,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -11058,7 +11111,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>447</v>
       </c>
@@ -11078,7 +11131,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>455</v>
       </c>
@@ -11098,7 +11151,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>455</v>
       </c>
@@ -11118,7 +11171,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>463</v>
       </c>
@@ -11138,7 +11191,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>463</v>
       </c>
@@ -11158,7 +11211,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -11178,7 +11231,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>471</v>
       </c>
@@ -11198,7 +11251,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>478</v>
       </c>
@@ -11218,7 +11271,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>478</v>
       </c>
@@ -11238,7 +11291,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>478</v>
       </c>
@@ -11258,7 +11311,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>486</v>
       </c>
@@ -11278,7 +11331,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>486</v>
       </c>
@@ -11298,7 +11351,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>486</v>
       </c>
@@ -11318,7 +11371,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>495</v>
       </c>
@@ -11338,7 +11391,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>495</v>
       </c>
@@ -11358,7 +11411,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>495</v>
       </c>
@@ -11378,7 +11431,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>503</v>
       </c>
@@ -11398,7 +11451,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>503</v>
       </c>
@@ -11418,7 +11471,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>510</v>
       </c>
@@ -11438,7 +11491,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>510</v>
       </c>
@@ -11458,7 +11511,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>510</v>
       </c>
@@ -11478,7 +11531,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>518</v>
       </c>
@@ -11498,7 +11551,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>525</v>
       </c>
@@ -11518,7 +11571,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>525</v>
       </c>
@@ -11538,7 +11591,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>532</v>
       </c>
@@ -11558,7 +11611,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>532</v>
       </c>
@@ -11578,7 +11631,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>532</v>
       </c>
@@ -11598,7 +11651,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>541</v>
       </c>
@@ -11618,7 +11671,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>541</v>
       </c>
@@ -11638,7 +11691,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>541</v>
       </c>
@@ -11658,7 +11711,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>550</v>
       </c>
@@ -11678,7 +11731,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>556</v>
       </c>
@@ -11698,7 +11751,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>556</v>
       </c>
@@ -11718,7 +11771,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -11738,7 +11791,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>564</v>
       </c>
@@ -11758,7 +11811,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>572</v>
       </c>
@@ -11778,7 +11831,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>572</v>
       </c>
@@ -11798,7 +11851,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>580</v>
       </c>
@@ -11818,7 +11871,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>580</v>
       </c>
@@ -11838,7 +11891,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>588</v>
       </c>
@@ -11858,7 +11911,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>588</v>
       </c>
@@ -11878,7 +11931,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>596</v>
       </c>
@@ -11898,7 +11951,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>596</v>
       </c>
@@ -11918,7 +11971,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>604</v>
       </c>
@@ -11938,7 +11991,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>604</v>
       </c>
@@ -11958,7 +12011,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>604</v>
       </c>
@@ -11978,7 +12031,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>612</v>
       </c>
@@ -11998,7 +12051,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>612</v>
       </c>
@@ -12018,7 +12071,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>620</v>
       </c>
@@ -12038,7 +12091,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>620</v>
       </c>
@@ -12058,7 +12111,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>628</v>
       </c>
@@ -12078,7 +12131,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>634</v>
       </c>
@@ -12098,7 +12151,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>634</v>
       </c>
@@ -12118,7 +12171,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>642</v>
       </c>
@@ -12138,7 +12191,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>649</v>
       </c>
@@ -12158,7 +12211,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>649</v>
       </c>
@@ -12178,7 +12231,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>656</v>
       </c>
@@ -12198,7 +12251,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>662</v>
       </c>
@@ -12218,7 +12271,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>662</v>
       </c>
@@ -12238,7 +12291,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>662</v>
       </c>
@@ -12258,7 +12311,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>671</v>
       </c>
@@ -12278,7 +12331,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>671</v>
       </c>
@@ -12298,7 +12351,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>678</v>
       </c>
@@ -12318,7 +12371,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>678</v>
       </c>
@@ -12338,7 +12391,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>678</v>
       </c>
@@ -12358,7 +12411,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>687</v>
       </c>
@@ -12378,7 +12431,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>687</v>
       </c>
@@ -12398,7 +12451,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>687</v>
       </c>
@@ -12418,7 +12471,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>696</v>
       </c>
@@ -12438,7 +12491,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>696</v>
       </c>
@@ -12458,7 +12511,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>703</v>
       </c>
@@ -12478,7 +12531,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>710</v>
       </c>
@@ -12498,7 +12551,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>717</v>
       </c>
@@ -12518,7 +12571,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>717</v>
       </c>
@@ -12538,7 +12591,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>717</v>
       </c>
@@ -12558,7 +12611,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>726</v>
       </c>
@@ -12578,7 +12631,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>726</v>
       </c>
@@ -12598,7 +12651,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>734</v>
       </c>
@@ -12618,7 +12671,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>734</v>
       </c>
@@ -12638,7 +12691,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>741</v>
       </c>
@@ -12658,7 +12711,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>747</v>
       </c>
@@ -12678,7 +12731,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>753</v>
       </c>
@@ -12698,7 +12751,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>753</v>
       </c>
@@ -12718,7 +12771,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>753</v>
       </c>
@@ -12738,7 +12791,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>762</v>
       </c>
@@ -12758,7 +12811,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>769</v>
       </c>
@@ -12778,7 +12831,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>769</v>
       </c>
@@ -12798,7 +12851,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>769</v>
       </c>
@@ -12818,7 +12871,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>777</v>
       </c>
@@ -12838,7 +12891,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>777</v>
       </c>
@@ -12858,7 +12911,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>785</v>
       </c>
@@ -12878,7 +12931,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>792</v>
       </c>
@@ -12898,7 +12951,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>792</v>
       </c>
@@ -12918,7 +12971,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>799</v>
       </c>
@@ -12938,7 +12991,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>806</v>
       </c>
@@ -12958,7 +13011,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>811</v>
       </c>
@@ -12978,7 +13031,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>817</v>
       </c>
@@ -12998,7 +13051,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>817</v>
       </c>
@@ -13018,7 +13071,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>825</v>
       </c>
@@ -13038,7 +13091,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>831</v>
       </c>
@@ -13058,7 +13111,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>831</v>
       </c>
@@ -13078,7 +13131,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>838</v>
       </c>
@@ -13098,7 +13151,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>838</v>
       </c>
@@ -13118,7 +13171,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>838</v>
       </c>
@@ -13138,7 +13191,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>847</v>
       </c>
@@ -13158,7 +13211,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>847</v>
       </c>
@@ -13178,7 +13231,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>854</v>
       </c>
@@ -13198,7 +13251,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>854</v>
       </c>
@@ -13218,7 +13271,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>862</v>
       </c>
@@ -13238,7 +13291,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>862</v>
       </c>
@@ -13258,7 +13311,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>862</v>
       </c>
@@ -13278,7 +13331,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>871</v>
       </c>
@@ -13298,7 +13351,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>877</v>
       </c>
@@ -13318,7 +13371,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>883</v>
       </c>
@@ -13338,7 +13391,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>883</v>
       </c>
@@ -13358,7 +13411,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>883</v>
       </c>
@@ -13378,7 +13431,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>891</v>
       </c>
@@ -13398,7 +13451,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>897</v>
       </c>
@@ -13418,7 +13471,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>897</v>
       </c>
@@ -13438,7 +13491,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>904</v>
       </c>
@@ -13458,7 +13511,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>904</v>
       </c>
@@ -13478,7 +13531,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>904</v>
       </c>
@@ -13498,7 +13551,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>913</v>
       </c>
@@ -13518,7 +13571,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>913</v>
       </c>
@@ -13538,7 +13591,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>913</v>
       </c>
@@ -13558,7 +13611,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>921</v>
       </c>
@@ -13578,7 +13631,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>921</v>
       </c>
@@ -13598,7 +13651,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>928</v>
       </c>
@@ -13618,7 +13671,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>935</v>
       </c>
@@ -13638,7 +13691,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>942</v>
       </c>
@@ -13658,7 +13711,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>942</v>
       </c>
@@ -13678,7 +13731,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>942</v>
       </c>
@@ -13698,7 +13751,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>950</v>
       </c>
@@ -13718,7 +13771,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>956</v>
       </c>
@@ -13738,7 +13791,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>963</v>
       </c>
@@ -13758,7 +13811,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>969</v>
       </c>
@@ -13778,7 +13831,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>969</v>
       </c>
@@ -13798,7 +13851,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>976</v>
       </c>
@@ -13818,7 +13871,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>981</v>
       </c>
@@ -13838,7 +13891,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>981</v>
       </c>
@@ -13858,7 +13911,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>988</v>
       </c>
@@ -13878,7 +13931,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>988</v>
       </c>
@@ -13898,7 +13951,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>988</v>
       </c>
@@ -13918,7 +13971,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>996</v>
       </c>
@@ -13938,7 +13991,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>996</v>
       </c>
@@ -13958,7 +14011,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>1004</v>
       </c>
@@ -13978,7 +14031,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>1010</v>
       </c>
@@ -13998,7 +14051,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>1010</v>
       </c>
@@ -14018,7 +14071,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14038,7 +14091,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14058,7 +14111,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14078,7 +14131,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>1025</v>
       </c>
@@ -14098,7 +14151,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>1025</v>
       </c>
@@ -14118,7 +14171,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14138,7 +14191,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14158,7 +14211,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14178,7 +14231,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>1042</v>
       </c>
@@ -14198,7 +14251,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>1049</v>
       </c>
@@ -14218,7 +14271,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14238,7 +14291,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14258,7 +14311,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14278,7 +14331,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14298,7 +14351,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14318,7 +14371,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14338,7 +14391,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14358,7 +14411,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14378,7 +14431,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14398,7 +14451,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14418,7 +14471,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14438,7 +14491,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14458,7 +14511,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>1105</v>
       </c>
@@ -14478,7 +14531,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>1111</v>
       </c>
@@ -14498,7 +14551,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>1125</v>
       </c>
@@ -14518,7 +14571,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>1125</v>
       </c>
@@ -14538,7 +14591,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="1" t="s">
         <v>1133</v>
       </c>
@@ -14558,7 +14611,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="1" t="s">
         <v>1133</v>
       </c>
@@ -14578,7 +14631,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14598,7 +14651,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14618,7 +14671,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14638,7 +14691,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14658,7 +14711,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14678,7 +14731,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14698,7 +14751,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14716,6 +14769,46 @@
       </c>
       <c r="F297" s="1" t="s">
         <v>1162</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C298" s="1">
+        <v>3</v>
+      </c>
+      <c r="D298" s="2">
+        <v>43450</v>
+      </c>
+      <c r="E298" s="2">
+        <v>43815</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C299" s="1">
+        <v>2</v>
+      </c>
+      <c r="D299" s="2">
+        <v>43450</v>
+      </c>
+      <c r="E299" s="2">
+        <v>43815</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>1170</v>
       </c>
     </row>
   </sheetData>

--- a/project 8/bin/Debug/History.xlsx
+++ b/project 8/bin/Debug/History.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F278FE-9603-48B2-95D5-32A9C2C26D8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12163" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="1189">
   <si>
     <t>400837090</t>
   </si>
@@ -3540,17 +3539,65 @@
   </si>
   <si>
     <t>0575554486</t>
+  </si>
+  <si>
+    <t>257887918</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Fietzer</t>
+  </si>
+  <si>
+    <t>0581205381</t>
+  </si>
+  <si>
+    <t>Kris_Fietzer@Imail.com</t>
+  </si>
+  <si>
+    <t>,mdsflkfjkl</t>
+  </si>
+  <si>
+    <t>RK1HT2J6J7</t>
+  </si>
+  <si>
+    <t>0598567654</t>
+  </si>
+  <si>
+    <t>05488799878</t>
+  </si>
+  <si>
+    <t>138908357</t>
+  </si>
+  <si>
+    <t>Anay</t>
+  </si>
+  <si>
+    <t>0544051688</t>
+  </si>
+  <si>
+    <t>Anay_Woo@Qmail.com</t>
+  </si>
+  <si>
+    <t>QKWE68762I</t>
+  </si>
+  <si>
+    <t>0599678392</t>
+  </si>
+  <si>
+    <t>0542165641</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3858,14 +3905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
       <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -3879,7 +3926,7 @@
     <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3911,7 +3958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +3990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -3975,7 +4022,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -4007,7 +4054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4039,7 +4086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -4071,7 +4118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -4103,7 +4150,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -4135,7 +4182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>72</v>
       </c>
@@ -4167,7 +4214,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
@@ -4199,7 +4246,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -4231,7 +4278,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -4263,7 +4310,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
@@ -4295,7 +4342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -4327,7 +4374,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>121</v>
       </c>
@@ -4359,7 +4406,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>128</v>
       </c>
@@ -4391,7 +4438,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
@@ -4423,7 +4470,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
@@ -4455,7 +4502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4487,7 +4534,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>162</v>
       </c>
@@ -4519,7 +4566,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>171</v>
       </c>
@@ -4551,7 +4598,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>179</v>
       </c>
@@ -4583,7 +4630,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>186</v>
       </c>
@@ -4615,7 +4662,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>194</v>
       </c>
@@ -4647,7 +4694,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>201</v>
       </c>
@@ -4679,7 +4726,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>209</v>
       </c>
@@ -4711,7 +4758,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>216</v>
       </c>
@@ -4743,7 +4790,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>224</v>
       </c>
@@ -4775,7 +4822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>231</v>
       </c>
@@ -4807,7 +4854,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>239</v>
       </c>
@@ -4839,7 +4886,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>248</v>
       </c>
@@ -4871,7 +4918,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>256</v>
       </c>
@@ -4903,7 +4950,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>264</v>
       </c>
@@ -4935,7 +4982,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>270</v>
       </c>
@@ -4967,7 +5014,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>277</v>
       </c>
@@ -4999,7 +5046,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>284</v>
       </c>
@@ -5031,7 +5078,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>290</v>
       </c>
@@ -5063,7 +5110,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>297</v>
       </c>
@@ -5095,7 +5142,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>304</v>
       </c>
@@ -5127,7 +5174,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>313</v>
       </c>
@@ -5159,7 +5206,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>322</v>
       </c>
@@ -5191,7 +5238,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>331</v>
       </c>
@@ -5223,7 +5270,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>338</v>
       </c>
@@ -5255,7 +5302,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>347</v>
       </c>
@@ -5287,7 +5334,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>356</v>
       </c>
@@ -5319,7 +5366,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>363</v>
       </c>
@@ -5351,7 +5398,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>370</v>
       </c>
@@ -5383,7 +5430,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>379</v>
       </c>
@@ -5415,7 +5462,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>387</v>
       </c>
@@ -5447,7 +5494,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>395</v>
       </c>
@@ -5479,7 +5526,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>402</v>
       </c>
@@ -5511,7 +5558,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>409</v>
       </c>
@@ -5543,7 +5590,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>417</v>
       </c>
@@ -5575,7 +5622,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>424</v>
       </c>
@@ -5607,7 +5654,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>431</v>
       </c>
@@ -5639,7 +5686,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>440</v>
       </c>
@@ -5671,7 +5718,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>447</v>
       </c>
@@ -5703,7 +5750,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>455</v>
       </c>
@@ -5735,7 +5782,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>463</v>
       </c>
@@ -5767,7 +5814,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>471</v>
       </c>
@@ -5799,7 +5846,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>478</v>
       </c>
@@ -5831,7 +5878,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>486</v>
       </c>
@@ -5863,7 +5910,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>495</v>
       </c>
@@ -5895,7 +5942,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>503</v>
       </c>
@@ -5927,7 +5974,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>510</v>
       </c>
@@ -5959,7 +6006,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>518</v>
       </c>
@@ -5991,7 +6038,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>525</v>
       </c>
@@ -6023,7 +6070,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>532</v>
       </c>
@@ -6055,7 +6102,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>541</v>
       </c>
@@ -6087,7 +6134,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>550</v>
       </c>
@@ -6119,7 +6166,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>556</v>
       </c>
@@ -6151,7 +6198,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>564</v>
       </c>
@@ -6183,7 +6230,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>572</v>
       </c>
@@ -6215,7 +6262,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>580</v>
       </c>
@@ -6247,7 +6294,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>588</v>
       </c>
@@ -6279,7 +6326,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>596</v>
       </c>
@@ -6311,7 +6358,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>604</v>
       </c>
@@ -6343,7 +6390,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>612</v>
       </c>
@@ -6375,7 +6422,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>620</v>
       </c>
@@ -6407,7 +6454,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>628</v>
       </c>
@@ -6439,7 +6486,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>634</v>
       </c>
@@ -6471,7 +6518,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>642</v>
       </c>
@@ -6503,7 +6550,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>649</v>
       </c>
@@ -6535,7 +6582,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>656</v>
       </c>
@@ -6567,7 +6614,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>662</v>
       </c>
@@ -6599,7 +6646,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>671</v>
       </c>
@@ -6631,7 +6678,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>678</v>
       </c>
@@ -6663,7 +6710,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>687</v>
       </c>
@@ -6695,7 +6742,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>696</v>
       </c>
@@ -6727,7 +6774,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>703</v>
       </c>
@@ -6759,7 +6806,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>710</v>
       </c>
@@ -6791,7 +6838,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>717</v>
       </c>
@@ -6823,7 +6870,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>726</v>
       </c>
@@ -6855,7 +6902,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>734</v>
       </c>
@@ -6887,7 +6934,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>741</v>
       </c>
@@ -6919,7 +6966,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>747</v>
       </c>
@@ -6951,7 +6998,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>753</v>
       </c>
@@ -6983,7 +7030,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>762</v>
       </c>
@@ -7015,7 +7062,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>769</v>
       </c>
@@ -7047,7 +7094,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>777</v>
       </c>
@@ -7079,7 +7126,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>785</v>
       </c>
@@ -7111,7 +7158,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>792</v>
       </c>
@@ -7143,7 +7190,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>799</v>
       </c>
@@ -7175,7 +7222,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>806</v>
       </c>
@@ -7207,7 +7254,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>811</v>
       </c>
@@ -7239,7 +7286,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>817</v>
       </c>
@@ -7271,7 +7318,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>825</v>
       </c>
@@ -7303,7 +7350,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>831</v>
       </c>
@@ -7335,7 +7382,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>838</v>
       </c>
@@ -7367,7 +7414,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>847</v>
       </c>
@@ -7399,7 +7446,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>854</v>
       </c>
@@ -7431,7 +7478,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>862</v>
       </c>
@@ -7463,7 +7510,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>871</v>
       </c>
@@ -7495,7 +7542,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>877</v>
       </c>
@@ -7527,7 +7574,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>883</v>
       </c>
@@ -7559,7 +7606,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>891</v>
       </c>
@@ -7591,7 +7638,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>897</v>
       </c>
@@ -7623,7 +7670,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>904</v>
       </c>
@@ -7655,7 +7702,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>913</v>
       </c>
@@ -7687,7 +7734,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>921</v>
       </c>
@@ -7719,7 +7766,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>928</v>
       </c>
@@ -7751,7 +7798,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>935</v>
       </c>
@@ -7783,7 +7830,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>942</v>
       </c>
@@ -7815,7 +7862,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>950</v>
       </c>
@@ -7847,7 +7894,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>956</v>
       </c>
@@ -7879,7 +7926,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>963</v>
       </c>
@@ -7911,7 +7958,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>969</v>
       </c>
@@ -7943,7 +7990,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>976</v>
       </c>
@@ -7975,7 +8022,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>981</v>
       </c>
@@ -8007,7 +8054,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>988</v>
       </c>
@@ -8039,7 +8086,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>996</v>
       </c>
@@ -8071,7 +8118,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>1004</v>
       </c>
@@ -8103,7 +8150,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>1010</v>
       </c>
@@ -8135,7 +8182,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>1017</v>
       </c>
@@ -8167,7 +8214,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1025</v>
       </c>
@@ -8199,7 +8246,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>1033</v>
       </c>
@@ -8231,7 +8278,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>1042</v>
       </c>
@@ -8263,7 +8310,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1049</v>
       </c>
@@ -8295,7 +8342,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1056</v>
       </c>
@@ -8327,7 +8374,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>1063</v>
       </c>
@@ -8359,7 +8406,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>1070</v>
       </c>
@@ -8391,7 +8438,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1078</v>
       </c>
@@ -8423,7 +8470,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>1084</v>
       </c>
@@ -8455,7 +8502,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>1092</v>
       </c>
@@ -8487,7 +8534,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>1097</v>
       </c>
@@ -8519,7 +8566,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1105</v>
       </c>
@@ -8551,7 +8598,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>1111</v>
       </c>
@@ -8583,7 +8630,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>1119</v>
       </c>
@@ -8615,7 +8662,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1125</v>
       </c>
@@ -8647,7 +8694,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>1133</v>
       </c>
@@ -8679,7 +8726,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1141</v>
       </c>
@@ -8711,7 +8758,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>1149</v>
       </c>
@@ -8743,7 +8790,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>1157</v>
       </c>
@@ -8775,7 +8822,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>1166</v>
       </c>
@@ -8805,6 +8852,70 @@
       </c>
       <c r="J154" s="1" t="s">
         <v>1170</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="2">
+        <v>43453</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H156" s="2">
+        <v>43453</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -8814,14 +8925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H299"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H303"/>
   <sheetViews>
     <sheetView topLeftCell="A277" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -8831,7 +8942,7 @@
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8851,7 +8962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8871,7 +8982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -8891,7 +9002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -8911,7 +9022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -8931,7 +9042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -8951,7 +9062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -8971,7 +9082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -8991,7 +9102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -9011,7 +9122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -9031,7 +9142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -9051,7 +9162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -9071,7 +9182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -9091,7 +9202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -9111,7 +9222,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -9131,7 +9242,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>72</v>
       </c>
@@ -9151,7 +9262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>72</v>
       </c>
@@ -9171,7 +9282,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -9191,7 +9302,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -9211,7 +9322,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>88</v>
       </c>
@@ -9231,7 +9342,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>88</v>
       </c>
@@ -9251,7 +9362,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -9271,7 +9382,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>97</v>
       </c>
@@ -9291,7 +9402,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>97</v>
       </c>
@@ -9311,7 +9422,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -9331,7 +9442,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -9351,7 +9462,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>113</v>
       </c>
@@ -9371,7 +9482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>113</v>
       </c>
@@ -9391,7 +9502,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>121</v>
       </c>
@@ -9411,7 +9522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>121</v>
       </c>
@@ -9431,7 +9542,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -9451,7 +9562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -9471,7 +9582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>136</v>
       </c>
@@ -9491,7 +9602,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>136</v>
       </c>
@@ -9511,7 +9622,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>136</v>
       </c>
@@ -9531,7 +9642,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -9551,7 +9662,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
@@ -9571,7 +9682,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
@@ -9591,7 +9702,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -9611,7 +9722,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>153</v>
       </c>
@@ -9631,7 +9742,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -9651,7 +9762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>162</v>
       </c>
@@ -9671,7 +9782,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
@@ -9691,7 +9802,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>162</v>
       </c>
@@ -9711,7 +9822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>171</v>
       </c>
@@ -9731,7 +9842,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
@@ -9751,7 +9862,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>179</v>
       </c>
@@ -9771,7 +9882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>186</v>
       </c>
@@ -9791,7 +9902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
@@ -9811,7 +9922,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>186</v>
       </c>
@@ -9831,7 +9942,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>194</v>
       </c>
@@ -9851,7 +9962,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>201</v>
       </c>
@@ -9871,7 +9982,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>201</v>
       </c>
@@ -9891,7 +10002,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>209</v>
       </c>
@@ -9911,7 +10022,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
@@ -9931,7 +10042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>216</v>
       </c>
@@ -9951,7 +10062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
@@ -9971,7 +10082,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>231</v>
       </c>
@@ -9991,7 +10102,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>231</v>
       </c>
@@ -10011,7 +10122,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>239</v>
       </c>
@@ -10031,7 +10142,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>239</v>
       </c>
@@ -10051,7 +10162,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>239</v>
       </c>
@@ -10071,7 +10182,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>248</v>
       </c>
@@ -10091,7 +10202,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>248</v>
       </c>
@@ -10111,7 +10222,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>256</v>
       </c>
@@ -10131,7 +10242,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>256</v>
       </c>
@@ -10151,7 +10262,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>264</v>
       </c>
@@ -10171,7 +10282,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>270</v>
       </c>
@@ -10191,7 +10302,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>270</v>
       </c>
@@ -10211,7 +10322,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>277</v>
       </c>
@@ -10231,7 +10342,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>284</v>
       </c>
@@ -10251,7 +10362,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>290</v>
       </c>
@@ -10271,7 +10382,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>297</v>
       </c>
@@ -10291,7 +10402,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>297</v>
       </c>
@@ -10311,7 +10422,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>304</v>
       </c>
@@ -10331,7 +10442,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>304</v>
       </c>
@@ -10351,7 +10462,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>304</v>
       </c>
@@ -10371,7 +10482,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>313</v>
       </c>
@@ -10391,7 +10502,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>313</v>
       </c>
@@ -10411,7 +10522,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>313</v>
       </c>
@@ -10431,7 +10542,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>322</v>
       </c>
@@ -10451,7 +10562,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>322</v>
       </c>
@@ -10471,7 +10582,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>322</v>
       </c>
@@ -10491,7 +10602,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>331</v>
       </c>
@@ -10511,7 +10622,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>331</v>
       </c>
@@ -10531,7 +10642,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>338</v>
       </c>
@@ -10551,7 +10662,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>338</v>
       </c>
@@ -10571,7 +10682,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>338</v>
       </c>
@@ -10591,7 +10702,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>347</v>
       </c>
@@ -10611,7 +10722,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>347</v>
       </c>
@@ -10631,7 +10742,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>347</v>
       </c>
@@ -10651,7 +10762,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>356</v>
       </c>
@@ -10671,7 +10782,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>363</v>
       </c>
@@ -10691,7 +10802,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>370</v>
       </c>
@@ -10711,7 +10822,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>370</v>
       </c>
@@ -10731,7 +10842,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>370</v>
       </c>
@@ -10751,7 +10862,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>379</v>
       </c>
@@ -10771,7 +10882,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>379</v>
       </c>
@@ -10791,7 +10902,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>379</v>
       </c>
@@ -10811,7 +10922,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>387</v>
       </c>
@@ -10831,7 +10942,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>387</v>
       </c>
@@ -10851,7 +10962,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>395</v>
       </c>
@@ -10871,7 +10982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>402</v>
       </c>
@@ -10891,7 +11002,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>409</v>
       </c>
@@ -10911,7 +11022,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>409</v>
       </c>
@@ -10931,7 +11042,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>409</v>
       </c>
@@ -10951,7 +11062,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>417</v>
       </c>
@@ -10971,7 +11082,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>424</v>
       </c>
@@ -10991,7 +11102,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>431</v>
       </c>
@@ -11011,7 +11122,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>431</v>
       </c>
@@ -11031,7 +11142,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>431</v>
       </c>
@@ -11051,7 +11162,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>440</v>
       </c>
@@ -11071,7 +11182,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>447</v>
       </c>
@@ -11091,7 +11202,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -11111,7 +11222,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>447</v>
       </c>
@@ -11131,7 +11242,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>455</v>
       </c>
@@ -11151,7 +11262,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>455</v>
       </c>
@@ -11171,7 +11282,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>463</v>
       </c>
@@ -11191,7 +11302,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>463</v>
       </c>
@@ -11211,7 +11322,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>463</v>
       </c>
@@ -11231,7 +11342,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>471</v>
       </c>
@@ -11251,7 +11362,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>478</v>
       </c>
@@ -11271,7 +11382,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>478</v>
       </c>
@@ -11291,7 +11402,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>478</v>
       </c>
@@ -11311,7 +11422,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>486</v>
       </c>
@@ -11331,7 +11442,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>486</v>
       </c>
@@ -11351,7 +11462,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>486</v>
       </c>
@@ -11371,7 +11482,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>495</v>
       </c>
@@ -11391,7 +11502,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>495</v>
       </c>
@@ -11411,7 +11522,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>495</v>
       </c>
@@ -11431,7 +11542,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>503</v>
       </c>
@@ -11451,7 +11562,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>503</v>
       </c>
@@ -11471,7 +11582,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>510</v>
       </c>
@@ -11491,7 +11602,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>510</v>
       </c>
@@ -11511,7 +11622,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>510</v>
       </c>
@@ -11531,7 +11642,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>518</v>
       </c>
@@ -11551,7 +11662,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>525</v>
       </c>
@@ -11571,7 +11682,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>525</v>
       </c>
@@ -11591,7 +11702,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>532</v>
       </c>
@@ -11611,7 +11722,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>532</v>
       </c>
@@ -11631,7 +11742,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>532</v>
       </c>
@@ -11651,7 +11762,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>541</v>
       </c>
@@ -11671,7 +11782,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>541</v>
       </c>
@@ -11691,7 +11802,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>541</v>
       </c>
@@ -11711,7 +11822,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>550</v>
       </c>
@@ -11731,7 +11842,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>556</v>
       </c>
@@ -11751,7 +11862,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>556</v>
       </c>
@@ -11771,7 +11882,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>564</v>
       </c>
@@ -11791,7 +11902,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>564</v>
       </c>
@@ -11811,7 +11922,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>572</v>
       </c>
@@ -11831,7 +11942,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>572</v>
       </c>
@@ -11851,7 +11962,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>580</v>
       </c>
@@ -11871,7 +11982,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>580</v>
       </c>
@@ -11891,7 +12002,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>588</v>
       </c>
@@ -11911,7 +12022,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>588</v>
       </c>
@@ -11931,7 +12042,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>596</v>
       </c>
@@ -11951,7 +12062,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>596</v>
       </c>
@@ -11971,7 +12082,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>604</v>
       </c>
@@ -11991,7 +12102,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>604</v>
       </c>
@@ -12011,7 +12122,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>604</v>
       </c>
@@ -12031,7 +12142,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>612</v>
       </c>
@@ -12051,7 +12162,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>612</v>
       </c>
@@ -12071,7 +12182,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>620</v>
       </c>
@@ -12091,7 +12202,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>620</v>
       </c>
@@ -12111,7 +12222,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>628</v>
       </c>
@@ -12131,7 +12242,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>634</v>
       </c>
@@ -12151,7 +12262,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>634</v>
       </c>
@@ -12171,7 +12282,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>642</v>
       </c>
@@ -12191,7 +12302,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>649</v>
       </c>
@@ -12211,7 +12322,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>649</v>
       </c>
@@ -12231,7 +12342,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>656</v>
       </c>
@@ -12251,7 +12362,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>662</v>
       </c>
@@ -12271,7 +12382,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>662</v>
       </c>
@@ -12291,7 +12402,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>662</v>
       </c>
@@ -12311,7 +12422,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>671</v>
       </c>
@@ -12331,7 +12442,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>671</v>
       </c>
@@ -12351,7 +12462,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>678</v>
       </c>
@@ -12371,7 +12482,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>678</v>
       </c>
@@ -12391,7 +12502,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>678</v>
       </c>
@@ -12411,7 +12522,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>687</v>
       </c>
@@ -12431,7 +12542,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>687</v>
       </c>
@@ -12451,7 +12562,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>687</v>
       </c>
@@ -12471,7 +12582,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>696</v>
       </c>
@@ -12491,7 +12602,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>696</v>
       </c>
@@ -12511,7 +12622,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>703</v>
       </c>
@@ -12531,7 +12642,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>710</v>
       </c>
@@ -12551,7 +12662,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>717</v>
       </c>
@@ -12571,7 +12682,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>717</v>
       </c>
@@ -12591,7 +12702,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>717</v>
       </c>
@@ -12611,7 +12722,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>726</v>
       </c>
@@ -12631,7 +12742,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>726</v>
       </c>
@@ -12651,7 +12762,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>734</v>
       </c>
@@ -12671,7 +12782,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>734</v>
       </c>
@@ -12691,7 +12802,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>741</v>
       </c>
@@ -12711,7 +12822,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>747</v>
       </c>
@@ -12731,7 +12842,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>753</v>
       </c>
@@ -12751,7 +12862,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>753</v>
       </c>
@@ -12771,7 +12882,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>753</v>
       </c>
@@ -12791,7 +12902,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>762</v>
       </c>
@@ -12811,7 +12922,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>769</v>
       </c>
@@ -12831,7 +12942,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>769</v>
       </c>
@@ -12851,7 +12962,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>769</v>
       </c>
@@ -12871,7 +12982,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>777</v>
       </c>
@@ -12891,7 +13002,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>777</v>
       </c>
@@ -12911,7 +13022,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>785</v>
       </c>
@@ -12931,7 +13042,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>792</v>
       </c>
@@ -12951,7 +13062,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>792</v>
       </c>
@@ -12971,7 +13082,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>799</v>
       </c>
@@ -12991,7 +13102,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>806</v>
       </c>
@@ -13011,7 +13122,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>811</v>
       </c>
@@ -13031,7 +13142,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>817</v>
       </c>
@@ -13051,7 +13162,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>817</v>
       </c>
@@ -13071,7 +13182,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>825</v>
       </c>
@@ -13091,7 +13202,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>831</v>
       </c>
@@ -13111,7 +13222,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>831</v>
       </c>
@@ -13131,7 +13242,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>838</v>
       </c>
@@ -13151,7 +13262,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>838</v>
       </c>
@@ -13171,7 +13282,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>838</v>
       </c>
@@ -13191,7 +13302,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>847</v>
       </c>
@@ -13211,7 +13322,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>847</v>
       </c>
@@ -13231,7 +13342,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>854</v>
       </c>
@@ -13251,7 +13362,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>854</v>
       </c>
@@ -13271,7 +13382,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>862</v>
       </c>
@@ -13291,7 +13402,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>862</v>
       </c>
@@ -13311,7 +13422,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>862</v>
       </c>
@@ -13331,7 +13442,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>871</v>
       </c>
@@ -13351,7 +13462,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>877</v>
       </c>
@@ -13371,7 +13482,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>883</v>
       </c>
@@ -13391,7 +13502,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>883</v>
       </c>
@@ -13411,7 +13522,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>883</v>
       </c>
@@ -13431,7 +13542,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>891</v>
       </c>
@@ -13451,7 +13562,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>897</v>
       </c>
@@ -13471,7 +13582,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>897</v>
       </c>
@@ -13491,7 +13602,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>904</v>
       </c>
@@ -13511,7 +13622,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>904</v>
       </c>
@@ -13531,7 +13642,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>904</v>
       </c>
@@ -13551,7 +13662,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>913</v>
       </c>
@@ -13571,7 +13682,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>913</v>
       </c>
@@ -13591,7 +13702,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>913</v>
       </c>
@@ -13611,7 +13722,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>921</v>
       </c>
@@ -13631,7 +13742,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>921</v>
       </c>
@@ -13651,7 +13762,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>928</v>
       </c>
@@ -13671,7 +13782,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>935</v>
       </c>
@@ -13691,7 +13802,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>942</v>
       </c>
@@ -13711,7 +13822,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>942</v>
       </c>
@@ -13731,7 +13842,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>942</v>
       </c>
@@ -13751,7 +13862,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>950</v>
       </c>
@@ -13771,7 +13882,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>956</v>
       </c>
@@ -13791,7 +13902,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>963</v>
       </c>
@@ -13811,7 +13922,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>969</v>
       </c>
@@ -13831,7 +13942,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>969</v>
       </c>
@@ -13851,7 +13962,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>976</v>
       </c>
@@ -13871,7 +13982,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>981</v>
       </c>
@@ -13891,7 +14002,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>981</v>
       </c>
@@ -13911,7 +14022,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>988</v>
       </c>
@@ -13931,7 +14042,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>988</v>
       </c>
@@ -13951,7 +14062,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>988</v>
       </c>
@@ -13971,7 +14082,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>996</v>
       </c>
@@ -13991,7 +14102,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>996</v>
       </c>
@@ -14011,7 +14122,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>1004</v>
       </c>
@@ -14031,7 +14142,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>1010</v>
       </c>
@@ -14051,7 +14162,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>1010</v>
       </c>
@@ -14071,7 +14182,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14091,7 +14202,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14111,7 +14222,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>1017</v>
       </c>
@@ -14131,7 +14242,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>1025</v>
       </c>
@@ -14151,7 +14262,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>1025</v>
       </c>
@@ -14171,7 +14282,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14191,7 +14302,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14211,7 +14322,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>1033</v>
       </c>
@@ -14231,7 +14342,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>1042</v>
       </c>
@@ -14251,7 +14362,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>1049</v>
       </c>
@@ -14271,7 +14382,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14291,7 +14402,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>1056</v>
       </c>
@@ -14311,7 +14422,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>1063</v>
       </c>
@@ -14331,7 +14442,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14351,7 +14462,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14371,7 +14482,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>1070</v>
       </c>
@@ -14391,7 +14502,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14411,7 +14522,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14431,7 +14542,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>1084</v>
       </c>
@@ -14451,7 +14562,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14471,7 +14582,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14491,7 +14602,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>1097</v>
       </c>
@@ -14511,7 +14622,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>1105</v>
       </c>
@@ -14531,7 +14642,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>1111</v>
       </c>
@@ -14551,7 +14662,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>1125</v>
       </c>
@@ -14571,7 +14682,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>1125</v>
       </c>
@@ -14591,7 +14702,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>1133</v>
       </c>
@@ -14611,7 +14722,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>1133</v>
       </c>
@@ -14631,7 +14742,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14651,7 +14762,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14671,7 +14782,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14691,7 +14802,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14711,7 +14822,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14731,7 +14842,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14751,7 +14862,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14771,7 +14882,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14791,7 +14902,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14809,6 +14920,86 @@
       </c>
       <c r="F299" s="1" t="s">
         <v>1170</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C300" s="1">
+        <v>2</v>
+      </c>
+      <c r="D300" s="2">
+        <v>43453</v>
+      </c>
+      <c r="E300" s="2">
+        <v>43818</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C301" s="1">
+        <v>2</v>
+      </c>
+      <c r="D301" s="2">
+        <v>43453</v>
+      </c>
+      <c r="E301" s="2">
+        <v>43818</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C302" s="1">
+        <v>3</v>
+      </c>
+      <c r="D302" s="2">
+        <v>43453</v>
+      </c>
+      <c r="E302" s="2">
+        <v>43818</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C303" s="1">
+        <v>2</v>
+      </c>
+      <c r="D303" s="2">
+        <v>43453</v>
+      </c>
+      <c r="E303" s="2">
+        <v>43818</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
